--- a/pidis/expdata/10010.xlsx
+++ b/pidis/expdata/10010.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02278054-407F-F843-9A89-A1268C59A2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29180" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="34700" yWindow="2620" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="15">
   <si>
     <t>Elab</t>
   </si>
@@ -47,12 +57,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Apar(stat)_u</t>
-  </si>
-  <si>
-    <t>Apar(syst)_c</t>
-  </si>
-  <si>
     <t>set*</t>
   </si>
   <si>
@@ -67,11 +71,23 @@
   <si>
     <t>JLabHA(E06014)</t>
   </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst_c</t>
+  </si>
+  <si>
+    <t>norm_c</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -89,9 +105,8 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,13 +137,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -140,6 +152,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -407,11 +422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -419,13 +434,13 @@
     <col min="1" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="5" width="8.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="7" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="1027" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -445,848 +460,1062 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>4.74</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.27700000000000002</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2.0379999999999998</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
+        <f>F2*0.014</f>
+        <v>-1.12E-4</v>
+      </c>
+      <c r="J2" s="3">
+        <f>MAX(H2^2-I2^2,0)^0.5</f>
+        <v>6.9991039426486592E-3</v>
+      </c>
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>4.74</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2.347</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I27" si="0">F3*0.014</f>
+        <v>-1.26E-4</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J27" si="1">MAX(H3^2-I3^2,0)^0.5</f>
+        <v>2.9973528320836706E-3</v>
+      </c>
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>4.74</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.374</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2.6389999999999998</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2E-3</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9987746246137908E-3</v>
+      </c>
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4.74</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2.915</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000005E-4</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9877349568717057E-3</v>
+      </c>
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>4.74</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.47299999999999998</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>3.1760000000000002</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.9400000000000004E-4</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9855592440948147E-3</v>
+      </c>
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="L6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>4.74</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.52300000000000002</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3.4249999999999998</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3">
         <v>2E-3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2E-3</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8E-5</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9998039903950586E-3</v>
+      </c>
+      <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="L7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>4.74</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.57399999999999995</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3.6619999999999999</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.01</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9993874530982864E-3</v>
+      </c>
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="L8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>4.74</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.623</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>3.8860000000000001</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>4.06E-4</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9724003767998683E-3</v>
+      </c>
+      <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="L9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>4.74</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.67300000000000004</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>4.0990000000000002</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9877349568717057E-3</v>
+      </c>
+      <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="L10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>4.74</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.72299999999999998</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>4.3070000000000004</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3400000000000003E-4</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9865330457960341E-3</v>
+      </c>
+      <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="L11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>4.74</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.77300000000000002</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>4.5039999999999996</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3">
         <v>-1.2E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.6800000000000002E-4</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.299891441621184E-2</v>
+      </c>
+      <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>4.74</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.82299999999999995</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>4.694</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>0.03</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.6200000000000001E-4</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1991103201957691E-2</v>
+      </c>
+      <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="L13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>4.74</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0.874</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>4.8760000000000003</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1.4E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.9600000000000002E-4</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6998870080096502E-2</v>
+      </c>
+      <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>5.89</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0.27700000000000002</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>2.6259999999999999</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.01</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6600000000000001E-4</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9964615739770637E-3</v>
+      </c>
+      <c r="K15" s="3">
         <v>2</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>5.89</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>3.032</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.3800000000000001E-4</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9905444320390893E-3</v>
+      </c>
+      <c r="K16" s="3">
         <v>2</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="L16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
         <v>5.89</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.374</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>3.4209999999999998</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>2E-3</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>-8.4000000000000009E-5</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9982352213891138E-3</v>
+      </c>
+      <c r="K17" s="3">
         <v>2</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>5.89</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>3.802</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3">
         <v>-0.02</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.8000000000000003E-4</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9869047524151149E-3</v>
+      </c>
+      <c r="K18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="L18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>5.89</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.47399999999999998</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>4.1689999999999996</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>0.01</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.9400000000000004E-4</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>5.9927926712009657E-3</v>
+      </c>
+      <c r="K19" s="3">
         <v>2</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="L19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>5.89</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>0.52400000000000002</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>4.5140000000000002</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3">
         <v>2E-3</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>2E-3</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8E-5</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9998039903950586E-3</v>
+      </c>
+      <c r="K20" s="3">
         <v>2</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="L20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>5.89</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.57299999999999995</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>4.8479999999999999</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000004E-5</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9997059855925881E-3</v>
+      </c>
+      <c r="K21" s="3">
         <v>2</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
         <v>5.89</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0.624</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>5.1760000000000002</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9995099759876467E-3</v>
+      </c>
+      <c r="K22" s="3">
         <v>2</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
         <v>5.89</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.67400000000000004</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>5.4859999999999998</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.2000000000000004E-5</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9998235968881947E-3</v>
+      </c>
+      <c r="K23" s="3">
         <v>2</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="L23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
         <v>5.89</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>0.72299999999999998</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>5.7770000000000001</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000004E-5</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9998235968881947E-3</v>
+      </c>
+      <c r="K24" s="3">
         <v>2</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="L24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
         <v>5.89</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>0.77300000000000002</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>6.0590000000000002</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000009E-5</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9995589878442668E-3</v>
+      </c>
+      <c r="K25" s="3">
         <v>2</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="L25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
         <v>5.89</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>0.82299999999999995</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>6.3250000000000002</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9200000000000004E-4</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3994510923930141E-2</v>
+      </c>
+      <c r="K26" s="3">
         <v>2</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="L26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
         <v>5.89</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>0.873</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>6.585</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6998702891691472E-2</v>
+      </c>
+      <c r="K27" s="3">
         <v>2</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>12</v>
+      <c r="L27" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
